--- a/Tong hop Video _Teach Android.xlsx
+++ b/Tong hop Video _Teach Android.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/140c13e5fa6ce748/Tài liệu/1.Mobile_Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android Lesson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{81F8B8DD-4200-463C-AAF7-2E509197C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F2654C5-BD2F-467C-B371-35BAB1926B6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F62030-CD24-4DC2-B65B-C8330A3C9D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="145">
   <si>
     <t>Video name</t>
   </si>
@@ -1354,12 +1354,286 @@
   <si>
     <t>Update</t>
   </si>
+  <si>
+    <t>https://gatostudy.com/huong-dan-cai-dat-va-su-dung-intellij-idea/</t>
+  </si>
+  <si>
+    <t>HD cài đặt và sử dụng Intellij IDEA</t>
+  </si>
+  <si>
+    <t>khi tạo mới class, thì chữ cái đầu tiên của tên class phải viết hoa.</t>
+  </si>
+  <si>
+    <t>Các chuẩn đặt tên trong lập trình:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>underscore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>: sử dụng dấu gạch chân giữa các từ, tất cả các từ đều viết thường, ví dụ: $this_is_my_variable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>camelCase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>: giống như cách viết của nó, từ đầu tiên viết thường, các từ tiếp theo viết hoa chữ cái đầu, ví dụ $thisIsMyVariable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>PascalCase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>: viết hoa tất cả các chữ cái đầu, ví dụ $ThisIsMyVariable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tên lớp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> đặt theo PascalCase, ví dụ: UserClass, CategoryClass…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tên hàm và phương thức</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sử dụng camelCase, ví dụ getUser, getCategory…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tên biến</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cũng sử dụng camelCase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>loginUser,loginUser,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>categoryList…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tên hằng số</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> thì đặc biệt, viết hoa hết và cách nhau bởi dấu gạch dưới DISCOUNT_PERCENT, LIMIT_RATE…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tên bảng, tên cột</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> trong Database sử dụng underscore và sử dụng danh từ số nhiều, ví dụ bảng oauth_clients, oauth_refresh_tokens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tên phần tử </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>trong HTML, ví dụ khi bạn sử dụng Vue.js, React… tạo ra thì nó sẽ có dạng KebabCase, ví dụ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;my-component&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đây là phần cơ bản, nhưng thực tế, code lệnh này sử dụng trực tiếp trong phần mềm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intellij Idea</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vUZa83TazmU</t>
+  </si>
+  <si>
+    <t>1, Toán tử số học: + - * / %</t>
+  </si>
+  <si>
+    <t>2, Toán tử gán: =  *=  -=  +=  /=  %=</t>
+  </si>
+  <si>
+    <t>3, Toán tử tăng, giảm:  ++X  --X  X++   X--</t>
+  </si>
+  <si>
+    <t>4, Toán tử so sánh: &gt; &lt; &gt;=  &lt;=  ==  !=</t>
+  </si>
+  <si>
+    <t>5, Toán tử logic :  &amp;&amp;  |  !</t>
+  </si>
+  <si>
+    <t>6, Toán tử ba ngôi Experson   ?  x  :   y</t>
+  </si>
+  <si>
+    <t>7, Thứ tự ưu tiên các toán tử</t>
+  </si>
+  <si>
+    <t>8, Giới thiệu Enum</t>
+  </si>
+  <si>
+    <t>Toán tử số học và toán tử gán trong Java (Ref "Than Trieu" channel)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1476,6 +1750,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1519,7 +1817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1575,6 +1873,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1834,7 +2138,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1864,8 +2168,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2133600" y="14135100"/>
-          <a:ext cx="8564880" cy="1798320"/>
+          <a:off x="1181100" y="14135100"/>
+          <a:ext cx="8564880" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2150,13 +2454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G96"/>
+  <dimension ref="A2:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,18 +2780,136 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="3" t="s">
+      <c r="D84" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="D89" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="D96" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D97" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="3" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2497,10 +2919,12 @@
     <hyperlink ref="D11" r:id="rId2" location="section=windows" xr:uid="{CD9A470E-D386-4641-9FD7-CE7263AA06F0}"/>
     <hyperlink ref="D13" r:id="rId3" xr:uid="{4D30D5E6-5BAF-4023-90E7-B575C60D86F4}"/>
     <hyperlink ref="D18" r:id="rId4" display="https://www.facebook.com/phatdroid94" xr:uid="{AC415EC6-C3FA-465A-9965-08085E629A48}"/>
+    <hyperlink ref="D85" r:id="rId5" xr:uid="{D4DCA2C2-1ACF-4C5D-B4DB-F4126D9CA884}"/>
+    <hyperlink ref="D100" r:id="rId6" xr:uid="{BDCAF940-E71A-4FBB-A312-B8EA6EB7ACF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Tong hop Video _Teach Android.xlsx
+++ b/Tong hop Video _Teach Android.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android Lesson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android Lesson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F62030-CD24-4DC2-B65B-C8330A3C9D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE806D25-01A2-4268-91AD-1D362FBDBA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>Video name</t>
   </si>
@@ -1627,6 +1627,9 @@
   </si>
   <si>
     <t>Toán tử số học và toán tử gán trong Java (Ref "Than Trieu" channel)</t>
+  </si>
+  <si>
+    <t>tiep theo</t>
   </si>
 </sst>
 </file>
@@ -1882,8 +1885,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2457,10 +2460,10 @@
   <dimension ref="A2:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomRight" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2901,6 +2904,11 @@
     <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="2" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.3">
